--- a/Stimuli/block4_stim_path.xlsx
+++ b/Stimuli/block4_stim_path.xlsx
@@ -1,17 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>corrAns</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target66.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor66.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target68.jpg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,6 +181,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +197,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,413 +497,329 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>corrAns</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target65.jpg</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target71.jpg</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target70.jpg</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target64.jpg</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target72.jpg</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target66.jpg</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target67.jpg</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target73.jpg</t>
-        </is>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target77.jpg</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target63.jpg</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target62.jpg</t>
-        </is>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target76.jpg</t>
-        </is>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target74.jpg</t>
-        </is>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target75.jpg</t>
-        </is>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target61.jpg</t>
-        </is>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor78.jpg</t>
-        </is>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor79.jpg</t>
-        </is>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor80.jpg</t>
-        </is>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor69.jpg</t>
-        </is>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor68.jpg</t>
-        </is>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor65.jpg</t>
-        </is>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor71.jpg</t>
-        </is>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor70.jpg</t>
-        </is>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor64.jpg</t>
-        </is>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor72.jpg</t>
-        </is>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor66.jpg</t>
-        </is>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor67.jpg</t>
-        </is>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor73.jpg</t>
-        </is>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor77.jpg</t>
-        </is>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor63.jpg</t>
-        </is>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor62.jpg</t>
-        </is>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor76.jpg</t>
-        </is>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor74.jpg</t>
-        </is>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor75.jpg</t>
-        </is>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor61.jpg</t>
-        </is>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target78.jpg</t>
-        </is>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target79.jpg</t>
-        </is>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target80.jpg</t>
-        </is>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target69.jpg</t>
-        </is>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target68.jpg</t>
-        </is>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>

--- a/Stimuli/block4_stim_path.xlsx
+++ b/Stimuli/block4_stim_path.xlsx
@@ -1,148 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>corrAns</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target68.jpg</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -181,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -197,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -489,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,331 +433,1215 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>corrAns</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor146.jpg</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor152.jpg</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target65.jpg</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target71.jpg</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target70.jpg</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target64.jpg</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor153.jpg</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor147.jpg</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor151.jpg</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor145.jpg</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target160.jpg</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target72.jpg</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target148.jpg</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target66.jpg</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target67.jpg</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target149.jpg</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target73.jpg</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor144.jpg</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor150.jpg</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor154.jpg</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor140.jpg</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target77.jpg</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target159.jpg</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target63.jpg</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target62.jpg</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target158.jpg</t>
+        </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target76.jpg</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor141.jpg</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor155.jpg</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor143.jpg</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor157.jpg</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target74.jpg</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target75.jpg</t>
+        </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target61.jpg</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor156.jpg</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor142.jpg</t>
+        </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor125.jpg</t>
+        </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor131.jpg</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor78.jpg</t>
+        </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target128.jpg</t>
+        </is>
       </c>
       <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target129.jpg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor79.jpg</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor130.jpg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor124.jpg</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor132.jpg</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor126.jpg</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor127.jpg</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor133.jpg</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor137.jpg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor123.jpg</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor80.jpg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor122.jpg</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor136.jpg</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor134.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor69.jpg</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target139.jpg</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target138.jpg</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor68.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor135.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor121.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor138.jpg</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor65.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor71.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target121.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target135.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target134.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor70.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor64.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor139.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor72.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor66.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target136.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target122.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target123.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target137.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor67.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor73.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor77.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor63.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target133.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target127.jpg</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target126.jpg</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target132.jpg</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor62.jpg</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor76.jpg</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor129.jpg</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor74.jpg</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target124.jpg</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target130.jpg</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target131.jpg</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target125.jpg</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor75.jpg</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor61.jpg</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor128.jpg</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target142.jpg</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target78.jpg</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target156.jpg</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target157.jpg</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target79.jpg</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target143.jpg</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor158.jpg</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target155.jpg</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target141.jpg</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target140.jpg</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target154.jpg</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor159.jpg</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor149.jpg</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target150.jpg</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target144.jpg</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target145.jpg</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target151.jpg</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target80.jpg</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor148.jpg</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor160.jpg</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target147.jpg</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target69.jpg</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target153.jpg</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target152.jpg</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target68.jpg</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target146.jpg</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Stimuli/block4_stim_path.xlsx
+++ b/Stimuli/block4_stim_path.xlsx
@@ -1,17 +1,388 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>corrAns</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor146.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor152.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor153.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor147.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor151.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor145.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target160.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target148.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target66.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target149.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor144.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor150.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor154.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor140.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target159.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target158.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor141.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor155.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor143.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor157.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor156.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor142.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor125.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor131.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target128.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target129.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor130.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor124.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor132.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor126.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor127.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor133.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor137.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor123.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor122.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor136.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor134.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target139.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target138.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor135.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor121.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor138.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target121.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target135.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target134.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor139.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor66.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target136.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target122.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target123.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target137.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target133.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target127.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target126.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target132.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor129.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target124.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target130.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target131.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target125.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor128.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target142.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target156.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target157.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target143.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor158.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target155.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target141.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target140.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target154.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor159.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor149.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target150.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target144.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target145.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target151.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor148.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor160.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target147.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target153.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target152.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target146.jpg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,6 +421,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +437,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,1213 +737,969 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>corrAns</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor146.jpg</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor152.jpg</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target65.jpg</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target71.jpg</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target70.jpg</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target64.jpg</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor153.jpg</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor147.jpg</t>
-        </is>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor151.jpg</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor145.jpg</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target160.jpg</t>
-        </is>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target72.jpg</t>
-        </is>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target148.jpg</t>
-        </is>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target66.jpg</t>
-        </is>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target67.jpg</t>
-        </is>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target149.jpg</t>
-        </is>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target73.jpg</t>
-        </is>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor144.jpg</t>
-        </is>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor150.jpg</t>
-        </is>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor154.jpg</t>
-        </is>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor140.jpg</t>
-        </is>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target77.jpg</t>
-        </is>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target159.jpg</t>
-        </is>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target63.jpg</t>
-        </is>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target62.jpg</t>
-        </is>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target158.jpg</t>
-        </is>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target76.jpg</t>
-        </is>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor141.jpg</t>
-        </is>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor155.jpg</t>
-        </is>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor143.jpg</t>
-        </is>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor157.jpg</t>
-        </is>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target74.jpg</t>
-        </is>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target75.jpg</t>
-        </is>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target61.jpg</t>
-        </is>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor156.jpg</t>
-        </is>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor142.jpg</t>
-        </is>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor125.jpg</t>
-        </is>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor131.jpg</t>
-        </is>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor78.jpg</t>
-        </is>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target128.jpg</t>
-        </is>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target129.jpg</t>
-        </is>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor79.jpg</t>
-        </is>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor130.jpg</t>
-        </is>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor124.jpg</t>
-        </is>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor132.jpg</t>
-        </is>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor126.jpg</t>
-        </is>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor127.jpg</t>
-        </is>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor133.jpg</t>
-        </is>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor137.jpg</t>
-        </is>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor123.jpg</t>
-        </is>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor80.jpg</t>
-        </is>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor122.jpg</t>
-        </is>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor136.jpg</t>
-        </is>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor134.jpg</t>
-        </is>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor69.jpg</t>
-        </is>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target139.jpg</t>
-        </is>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target138.jpg</t>
-        </is>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor68.jpg</t>
-        </is>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor135.jpg</t>
-        </is>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor121.jpg</t>
-        </is>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor138.jpg</t>
-        </is>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor65.jpg</t>
-        </is>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor71.jpg</t>
-        </is>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target121.jpg</t>
-        </is>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target135.jpg</t>
-        </is>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target134.jpg</t>
-        </is>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor70.jpg</t>
-        </is>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor64.jpg</t>
-        </is>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor139.jpg</t>
-        </is>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor72.jpg</t>
-        </is>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor66.jpg</t>
-        </is>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target136.jpg</t>
-        </is>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target122.jpg</t>
-        </is>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target123.jpg</t>
-        </is>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target137.jpg</t>
-        </is>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor67.jpg</t>
-        </is>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor73.jpg</t>
-        </is>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor77.jpg</t>
-        </is>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor63.jpg</t>
-        </is>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target133.jpg</t>
-        </is>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target127.jpg</t>
-        </is>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target126.jpg</t>
-        </is>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target132.jpg</t>
-        </is>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor62.jpg</t>
-        </is>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor76.jpg</t>
-        </is>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor129.jpg</t>
-        </is>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor74.jpg</t>
-        </is>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target124.jpg</t>
-        </is>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target130.jpg</t>
-        </is>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target131.jpg</t>
-        </is>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target125.jpg</t>
-        </is>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor75.jpg</t>
-        </is>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor61.jpg</t>
-        </is>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor128.jpg</t>
-        </is>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target142.jpg</t>
-        </is>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target78.jpg</t>
-        </is>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target156.jpg</t>
-        </is>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target157.jpg</t>
-        </is>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target79.jpg</t>
-        </is>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target143.jpg</t>
-        </is>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor158.jpg</t>
-        </is>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target155.jpg</t>
-        </is>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target141.jpg</t>
-        </is>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target140.jpg</t>
-        </is>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target154.jpg</t>
-        </is>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor159.jpg</t>
-        </is>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor149.jpg</t>
-        </is>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target150.jpg</t>
-        </is>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target144.jpg</t>
-        </is>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target145.jpg</t>
-        </is>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target151.jpg</t>
-        </is>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target80.jpg</t>
-        </is>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor148.jpg</t>
-        </is>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor160.jpg</t>
-        </is>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target147.jpg</t>
-        </is>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target69.jpg</t>
-        </is>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target153.jpg</t>
-        </is>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target152.jpg</t>
-        </is>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target68.jpg</t>
-        </is>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target146.jpg</t>
-        </is>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>

--- a/Stimuli/block4_stim_path.xlsx
+++ b/Stimuli/block4_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>image</t>
   </si>
@@ -23,364 +23,484 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor146.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor152.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor153.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor147.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor151.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor145.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target160.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target148.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target149.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor144.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor150.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor154.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor140.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target159.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target158.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor141.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor155.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor143.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor157.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor156.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor142.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor125.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor131.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target128.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target129.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor130.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor124.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor132.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor126.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor127.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor133.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor137.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor123.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor122.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor136.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor134.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target139.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target138.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor135.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor121.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor138.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target121.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target135.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target134.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor139.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target136.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target122.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target123.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target137.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target133.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target127.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target126.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target132.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor129.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target124.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target130.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target131.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target125.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor128.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target142.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target156.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target157.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target143.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor158.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target155.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target141.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target140.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target154.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor159.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor149.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target150.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target144.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target145.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target151.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor148.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/distractor160.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target147.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target153.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target152.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block4/target146.jpg</t>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target289.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target276.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target262.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target302.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target316.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor253.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor247.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor290.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor284.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor285.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor291.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor246.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor252.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target317.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target303.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target263.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target277.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target288.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor318.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target261.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target275.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target249.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target315.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target301.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor278.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor244.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor250.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor287.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor293.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor292.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor286.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor251.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor245.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor279.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target300.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target314.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target248.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target274.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target260.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor319.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor309.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target258.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target264.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target270.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target310.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target304.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor241.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor255.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor269.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor282.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor296.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor297.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor283.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor268.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor254.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target305.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target311.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target271.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target265.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target259.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor308.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor320.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target298.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target273.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target267.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target307.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target313.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor256.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor242.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor295.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor281.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor280.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor294.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor243.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor257.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target312.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target306.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target266.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target272.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target299.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor306.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor312.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target294.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target280.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target257.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target243.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor272.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor266.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor299.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor298.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor267.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor273.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target242.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target256.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target281.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target295.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor313.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor307.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor311.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor305.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target283.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target297.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target254.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target268.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target320.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target308.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor259.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor265.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor271.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor270.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor264.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor258.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target309.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target269.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target255.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target241.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target296.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target282.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor304.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor310.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor314.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor300.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target286.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target292.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target279.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target245.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target251.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target319.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor260.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor274.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor248.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor249.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor275.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor261.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target318.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target250.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target244.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target278.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target293.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target287.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor301.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor315.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor303.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor317.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target291.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target285.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target252.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target246.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor277.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor263.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor288.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor289.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor262.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor276.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target247.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target253.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target284.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/target290.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor316.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block4/distractor302.jpg</t>
   </si>
 </sst>
 </file>
@@ -729,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -758,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -790,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -830,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -838,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -846,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -886,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -902,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -910,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -942,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -950,7 +1070,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -958,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -998,7 +1118,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1006,7 +1126,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1014,7 +1134,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1022,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1030,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1038,7 +1158,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1046,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1054,7 +1174,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1062,7 +1182,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1070,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1078,7 +1198,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1086,7 +1206,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1094,7 +1214,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1102,7 +1222,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1110,7 +1230,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1206,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1214,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1222,7 +1342,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1246,7 +1366,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1278,7 +1398,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1318,7 +1438,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1326,7 +1446,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1334,7 +1454,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1342,7 +1462,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1350,7 +1470,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1358,7 +1478,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1366,7 +1486,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1374,7 +1494,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1390,7 +1510,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1398,7 +1518,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1414,7 +1534,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1422,7 +1542,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1430,7 +1550,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1446,7 +1566,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1454,7 +1574,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1462,7 +1582,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1470,7 +1590,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1486,7 +1606,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1494,7 +1614,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1518,7 +1638,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1526,7 +1646,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1534,7 +1654,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1542,7 +1662,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1550,7 +1670,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1590,7 +1710,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1606,7 +1726,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1614,7 +1734,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1622,7 +1742,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1630,7 +1750,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1638,7 +1758,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1646,7 +1766,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1654,7 +1774,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1694,7 +1814,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1702,7 +1822,327 @@
         <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
